--- a/src/main/java/testdata/TestData_Testmanagement.xlsx
+++ b/src/main/java/testdata/TestData_Testmanagement.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RPLPT\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dd969f085f37fe85/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC4FA73-79A7-4E5E-A82F-90D4592EDE06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{8BC4FA73-79A7-4E5E-A82F-90D4592EDE06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4970ECDD-52BE-42E4-B65C-F46B59B8350E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,12 @@
     <sheet name="Feature 1" sheetId="2" r:id="rId2"/>
     <sheet name="Feature 2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="91">
   <si>
     <t>Name</t>
   </si>
@@ -202,13 +202,106 @@
   </si>
   <si>
     <t xml:space="preserve"> Non static template Spanish</t>
+  </si>
+  <si>
+    <t>EnvelopeSubject</t>
+  </si>
+  <si>
+    <t>Envelope Danish</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Envelope english</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Envelope french</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Envelope greman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Envelope Hungarian</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Envelope Italian</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Envelope Latvian</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Envelope Lithuanian</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Envelope Norwegian</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Envelope Polish </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Envelope Portguese</t>
+  </si>
+  <si>
+    <t>Envelope Romanian</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Envelope Spanish</t>
+  </si>
+  <si>
+    <t>Envelope dutch</t>
+  </si>
+  <si>
+    <t>EnvelopeBody</t>
+  </si>
+  <si>
+    <t>Rulename</t>
+  </si>
+  <si>
+    <t>Rule Danish</t>
+  </si>
+  <si>
+    <t>Rule dutch</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rule english</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rule french</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rule greman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rule Hungarian</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rule Italian</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rule Latvian</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rule Lithuanian</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rule Norwegian</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rule Polish </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rule Portguese</t>
+  </si>
+  <si>
+    <t>Rule Romanian</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rule Spanish</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -226,6 +319,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -278,7 +377,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -288,6 +387,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -372,6 +472,14 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -800,10 +908,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -811,15 +919,18 @@
     <col min="1" max="1" width="30.88671875" customWidth="1"/>
     <col min="2" max="2" width="28.44140625" customWidth="1"/>
     <col min="3" max="3" width="34.33203125" customWidth="1"/>
-    <col min="4" max="1024" width="11.5546875"/>
+    <col min="4" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.5546875"/>
+    <col min="8" max="8" width="27.6640625" customWidth="1"/>
+    <col min="9" max="1024" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
@@ -829,8 +940,17 @@
       <c r="C2" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -840,8 +960,17 @@
       <c r="C3" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -851,8 +980,17 @@
       <c r="C4" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -862,8 +1000,17 @@
       <c r="C5" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -873,8 +1020,18 @@
       <c r="C6" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -884,8 +1041,17 @@
       <c r="C7" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -895,8 +1061,17 @@
       <c r="C8" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -906,8 +1081,17 @@
       <c r="C9" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
@@ -917,8 +1101,17 @@
       <c r="C10" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
@@ -928,8 +1121,17 @@
       <c r="C11" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
@@ -939,8 +1141,17 @@
       <c r="C12" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -950,8 +1161,17 @@
       <c r="C13" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
@@ -961,8 +1181,17 @@
       <c r="C14" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
@@ -972,8 +1201,17 @@
       <c r="C15" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
@@ -983,9 +1221,19 @@
       <c r="C16" s="4" t="s">
         <v>59</v>
       </c>
+      <c r="D16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/src/main/java/testdata/TestData_Testmanagement.xlsx
+++ b/src/main/java/testdata/TestData_Testmanagement.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dd969f085f37fe85/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dd969f085f37fe85/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{8BC4FA73-79A7-4E5E-A82F-90D4592EDE06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4970ECDD-52BE-42E4-B65C-F46B59B8350E}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{DE7D6F14-82AF-4ECF-B231-55421AA0C79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B8B37AB-03DE-4454-887C-C480372C3AA8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,12 @@
     <sheet name="Feature 1" sheetId="2" r:id="rId2"/>
     <sheet name="Feature 2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -69,239 +69,47 @@
     <t>italian@mailinator.com</t>
   </si>
   <si>
-    <t>Multisigner static template english</t>
-  </si>
-  <si>
     <t>Multisigner static template Danish</t>
   </si>
   <si>
-    <t>Multisigner static template dutch</t>
-  </si>
-  <si>
-    <t>Multisigner static template french</t>
-  </si>
-  <si>
-    <t>Multisigner static template greman</t>
-  </si>
-  <si>
-    <t>Multisigner static template Hungarian</t>
-  </si>
-  <si>
-    <t>Multisigner static template Italian</t>
-  </si>
-  <si>
-    <t>Multisigner static template Latvian</t>
-  </si>
-  <si>
-    <t>Multisigner static template Lithuanian</t>
-  </si>
-  <si>
-    <t>Multisigner static template Norwegian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multisigner static template Polish </t>
-  </si>
-  <si>
-    <t>Multisigner static template Portguese</t>
-  </si>
-  <si>
-    <t>Multisigner static template Romanian</t>
-  </si>
-  <si>
-    <t>Multisigner static template Spanish</t>
-  </si>
-  <si>
     <t>MultiSignerStaticTemplatename</t>
   </si>
   <si>
     <t>StaticTemplatename</t>
   </si>
   <si>
-    <t xml:space="preserve"> static template dutch</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> static template english</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> static template french</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> static template greman</t>
-  </si>
-  <si>
     <t xml:space="preserve"> static template Danish</t>
   </si>
   <si>
-    <t xml:space="preserve"> static template Hungarian</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> static template Italian</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> static template Latvian</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> static template Lithuanian</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> static template Norwegian</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> static template Polish </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> static template Portguese</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> static template Romanian</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> static template Spanish</t>
-  </si>
-  <si>
     <t>NonStaticTemplatename</t>
   </si>
   <si>
     <t>Non static template Danish</t>
   </si>
   <si>
-    <t xml:space="preserve"> Nonstatic template dutch</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Non static template english</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Non static template french</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Non static template greman</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Non static template Hungarian</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Non static template Italian</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Non static template Latvian</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Non static template Lithuanian</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Non static template Norwegian</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Non static template Polish </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Non static template Portguese</t>
-  </si>
-  <si>
-    <t>Non static template Romanian</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Non static template Spanish</t>
+    <t>Rulename</t>
+  </si>
+  <si>
+    <t>Rule Danish</t>
   </si>
   <si>
     <t>EnvelopeSubject</t>
   </si>
   <si>
-    <t>Envelope Danish</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Envelope english</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Envelope french</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Envelope greman</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Envelope Hungarian</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Envelope Italian</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Envelope Latvian</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Envelope Lithuanian</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Envelope Norwegian</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Envelope Polish </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Envelope Portguese</t>
-  </si>
-  <si>
-    <t>Envelope Romanian</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Envelope Spanish</t>
-  </si>
-  <si>
-    <t>Envelope dutch</t>
-  </si>
-  <si>
     <t>EnvelopeBody</t>
   </si>
   <si>
-    <t>Rulename</t>
-  </si>
-  <si>
-    <t>Rule Danish</t>
-  </si>
-  <si>
-    <t>Rule dutch</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rule english</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rule french</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rule greman</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rule Hungarian</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rule Italian</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rule Latvian</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rule Lithuanian</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rule Norwegian</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rule Polish </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rule Portguese</t>
-  </si>
-  <si>
-    <t>Rule Romanian</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rule Spanish</t>
+    <t>Danish envelope subject</t>
+  </si>
+  <si>
+    <t>Danish envelope body</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -319,12 +127,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -353,7 +155,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -372,22 +174,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -472,14 +339,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -805,82 +664,82 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -908,332 +767,174 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" customWidth="1"/>
-    <col min="4" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.5546875"/>
-    <col min="8" max="8" width="27.6640625" customWidth="1"/>
-    <col min="9" max="1024" width="11.5546875"/>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1"/>
+    <col min="7" max="1024" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="C2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="D3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="E3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="F3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>90</v>
-      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/src/main/java/testdata/TestData_Testmanagement.xlsx
+++ b/src/main/java/testdata/TestData_Testmanagement.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dd969f085f37fe85/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dd969f085f37fe85/Pictures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{DE7D6F14-82AF-4ECF-B231-55421AA0C79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B8B37AB-03DE-4454-887C-C480372C3AA8}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{DE7D6F14-82AF-4ECF-B231-55421AA0C79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F218DF9-21BA-4A1B-A6A9-F07BB41A7684}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="104">
   <si>
     <t>Name</t>
   </si>
@@ -84,9 +84,6 @@
     <t>NonStaticTemplatename</t>
   </si>
   <si>
-    <t>Non static template Danish</t>
-  </si>
-  <si>
     <t>Rulename</t>
   </si>
   <si>
@@ -103,6 +100,240 @@
   </si>
   <si>
     <t>Danish envelope body</t>
+  </si>
+  <si>
+    <t>Multisigner static template Dutch</t>
+  </si>
+  <si>
+    <t>Multisigner static template English</t>
+  </si>
+  <si>
+    <t>Multisigner static template French</t>
+  </si>
+  <si>
+    <t>Multisigner static template German</t>
+  </si>
+  <si>
+    <t>Multisigner static template Hungarian</t>
+  </si>
+  <si>
+    <t>Multisigner static template Italian</t>
+  </si>
+  <si>
+    <t>Multisigner static template Latvian</t>
+  </si>
+  <si>
+    <t>Multisigner static template Lithuanian</t>
+  </si>
+  <si>
+    <t>Multisigner static template Norwegian</t>
+  </si>
+  <si>
+    <t>Multisigner static template Polish</t>
+  </si>
+  <si>
+    <t>Multisigner static template Portuguese</t>
+  </si>
+  <si>
+    <t>Multisigner static template Romanian</t>
+  </si>
+  <si>
+    <t>Multisigner static template Spanish</t>
+  </si>
+  <si>
+    <t>static template Dutch</t>
+  </si>
+  <si>
+    <t>static template French</t>
+  </si>
+  <si>
+    <t>static template German</t>
+  </si>
+  <si>
+    <t>static template Hungarian</t>
+  </si>
+  <si>
+    <t>static template Italian</t>
+  </si>
+  <si>
+    <t>static template Latvian</t>
+  </si>
+  <si>
+    <t>static template Lithuanian</t>
+  </si>
+  <si>
+    <t>static template Norwegian</t>
+  </si>
+  <si>
+    <t>static template Polish</t>
+  </si>
+  <si>
+    <t>static template Portuguese</t>
+  </si>
+  <si>
+    <t>static template Romanian</t>
+  </si>
+  <si>
+    <t>static template Spanish</t>
+  </si>
+  <si>
+    <t>Template Danish</t>
+  </si>
+  <si>
+    <t>Template Dutch</t>
+  </si>
+  <si>
+    <t>Template English</t>
+  </si>
+  <si>
+    <t>Template French</t>
+  </si>
+  <si>
+    <t>Template German</t>
+  </si>
+  <si>
+    <t>Template Hungarian</t>
+  </si>
+  <si>
+    <t>Template Italian</t>
+  </si>
+  <si>
+    <t>Template Latvian</t>
+  </si>
+  <si>
+    <t>Template Lithuanian</t>
+  </si>
+  <si>
+    <t>Template Norwegian</t>
+  </si>
+  <si>
+    <t>Template Polish</t>
+  </si>
+  <si>
+    <t>Template Portuguese</t>
+  </si>
+  <si>
+    <t>Template Romanian</t>
+  </si>
+  <si>
+    <t>Template Spanish</t>
+  </si>
+  <si>
+    <t>Rule Dutch</t>
+  </si>
+  <si>
+    <t>Rule English</t>
+  </si>
+  <si>
+    <t>Rule French</t>
+  </si>
+  <si>
+    <t>Rule German</t>
+  </si>
+  <si>
+    <t>Rule Hungarian</t>
+  </si>
+  <si>
+    <t>Rule Italian</t>
+  </si>
+  <si>
+    <t>Rule Latvian</t>
+  </si>
+  <si>
+    <t>Rule Lithuanian</t>
+  </si>
+  <si>
+    <t>Rule Norwegian</t>
+  </si>
+  <si>
+    <t>Rule Polish</t>
+  </si>
+  <si>
+    <t>Rule Portuguese</t>
+  </si>
+  <si>
+    <t>Rule Romanian</t>
+  </si>
+  <si>
+    <t>Rule Spanish</t>
+  </si>
+  <si>
+    <t>Envelope Dutch</t>
+  </si>
+  <si>
+    <t>Envelope English</t>
+  </si>
+  <si>
+    <t>Envelope French</t>
+  </si>
+  <si>
+    <t>Envelope German</t>
+  </si>
+  <si>
+    <t>Envelope Hungarian</t>
+  </si>
+  <si>
+    <t>Envelope Italian</t>
+  </si>
+  <si>
+    <t>Envelope Latvian</t>
+  </si>
+  <si>
+    <t>Envelope Lithuanian</t>
+  </si>
+  <si>
+    <t>Envelope Norwegian</t>
+  </si>
+  <si>
+    <t>Envelope Polish</t>
+  </si>
+  <si>
+    <t>Envelope Portuguese</t>
+  </si>
+  <si>
+    <t>Envelope Romanian</t>
+  </si>
+  <si>
+    <t>Envelope Spanish</t>
+  </si>
+  <si>
+    <t>Envelope body Dutch</t>
+  </si>
+  <si>
+    <t>Envelope body English</t>
+  </si>
+  <si>
+    <t>Envelope body French</t>
+  </si>
+  <si>
+    <t>Envelope body German</t>
+  </si>
+  <si>
+    <t>Envelope body Hungarian</t>
+  </si>
+  <si>
+    <t>Envelope body Italian</t>
+  </si>
+  <si>
+    <t>Envelope body Latvian</t>
+  </si>
+  <si>
+    <t>Envelope body Lithuanian</t>
+  </si>
+  <si>
+    <t>Envelope body Norwegian</t>
+  </si>
+  <si>
+    <t>Envelope body Polish</t>
+  </si>
+  <si>
+    <t>Envelope body Portuguese</t>
+  </si>
+  <si>
+    <t>Envelope body Romanian</t>
+  </si>
+  <si>
+    <t>Envelope body Spanish</t>
   </si>
 </sst>
 </file>
@@ -238,7 +469,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -254,7 +485,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -770,7 +1000,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -800,13 +1030,13 @@
         <v>19</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
@@ -817,121 +1047,277 @@
         <v>18</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="8" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="B4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>103</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
